--- a/Labs/Lab02-Authentication/Lab2Rubric-Authentication.xlsx
+++ b/Labs/Lab02-Authentication/Lab2Rubric-Authentication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab03-Authentication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab02-Authentication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C895DF-B645-4ECF-823A-B0CB5F34EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{20844159-8700-4C4D-9BA4-0F86D1F798E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="4104" windowWidth="14388" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="-11892" yWindow="4164" windowWidth="11928" windowHeight="12948" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Possible</t>
   </si>
@@ -84,20 +84,23 @@
     <t>Running on Azure</t>
   </si>
   <si>
-    <t>Runnning on Azure</t>
-  </si>
-  <si>
-    <t>Lab 3 Rubric - Authentication</t>
-  </si>
-  <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Lab 2 Rubric - Authentication</t>
+  </si>
+  <si>
+    <t>Excellent work!</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +132,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,11 +161,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +489,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -594,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -616,111 +633,109 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -729,31 +744,57 @@
         <v>4</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <f>SUM(C4:C16)</f>
+      <c r="C20">
+        <f>SUM(C6:C18)</f>
         <v>50</v>
       </c>
-      <c r="D18">
-        <f>SUM(D4:D16)</f>
+      <c r="D20">
+        <f>SUM(D6:D18)</f>
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Labs/Lab02-Authentication/Lab2Rubric-Authentication.xlsx
+++ b/Labs/Lab02-Authentication/Lab2Rubric-Authentication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab02-Authentication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS296N-CourseMaterials/Labs/Lab02-Authentication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{20844159-8700-4C4D-9BA4-0F86D1F798E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22FB44-B0A8-E34D-932D-21EA3EAD1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11892" yWindow="4164" windowWidth="11928" windowHeight="12948" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="12240" windowHeight="16140" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -161,15 +161,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,28 +495,28 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.796875" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -521,17 +524,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -539,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -547,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -555,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -563,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -571,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -579,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -587,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -595,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -613,46 +616,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4A847-4F96-D246-88E5-35AE03F623AE}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="6.796875" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
     <col min="5" max="5" width="1.5" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -663,12 +666,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -678,18 +682,24 @@
       <c r="D6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -699,8 +709,9 @@
       <c r="D10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -710,8 +721,9 @@
       <c r="D11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -721,8 +733,9 @@
       <c r="D12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -732,8 +745,9 @@
       <c r="D13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -743,8 +757,9 @@
       <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -754,8 +769,9 @@
       <c r="D15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -763,10 +779,14 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -776,8 +796,12 @@
       <c r="D18">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -787,8 +811,9 @@
       </c>
       <c r="D20">
         <f>SUM(D6:D18)</f>
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -796,5 +821,6 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Labs/Lab02-Authentication/Lab2Rubric-Authentication.xlsx
+++ b/Labs/Lab02-Authentication/Lab2Rubric-Authentication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab02-Authentication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{20844159-8700-4C4D-9BA4-0F86D1F798E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054A073A-47FF-41F6-81B3-88EB7B26D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11892" yWindow="4164" windowWidth="11928" windowHeight="12948" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
+    <workbookView xWindow="-14976" yWindow="4536" windowWidth="12696" windowHeight="10992" activeTab="1" xr2:uid="{30F55907-EC47-624F-8636-FE6181D07E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="2" r:id="rId1"/>
@@ -161,15 +161,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -190,9 +193,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +233,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,7 +617,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -633,24 +636,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
@@ -667,6 +670,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -678,16 +682,22 @@
       <c r="D6">
         <v>10</v>
       </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -699,6 +709,7 @@
       <c r="D10">
         <v>6</v>
       </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -710,6 +721,7 @@
       <c r="D11">
         <v>6</v>
       </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -721,6 +733,7 @@
       <c r="D12">
         <v>3</v>
       </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -732,6 +745,7 @@
       <c r="D13">
         <v>7</v>
       </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -743,6 +757,7 @@
       <c r="D14">
         <v>4</v>
       </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -754,6 +769,7 @@
       <c r="D15">
         <v>2</v>
       </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -765,8 +781,12 @@
       <c r="D16">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -776,8 +796,12 @@
       <c r="D18">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -789,6 +813,7 @@
         <f>SUM(D6:D18)</f>
         <v>50</v>
       </c>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -796,5 +821,6 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>